--- a/excel/03.xlsx
+++ b/excel/03.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yabuki\Dropbox\it-chiba\データ解析入門\analysis\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E8DB55B-2295-422B-8959-5DA0B65E6398}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FAEDA54-0057-4896-8750-80440FCAE4A1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6700" yWindow="2500" windowWidth="19370" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2810" yWindow="3580" windowWidth="18200" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
   <si>
     <t>今日やること</t>
   </si>
@@ -362,6 +362,37 @@
   </si>
   <si>
     <t>https://www.data.jma.go.jp/obd/stats/etrn/view/daily_s1.php?prec_no=44&amp;block_no=47662&amp;year=2020&amp;month=4&amp;day=1&amp;view=</t>
+  </si>
+  <si>
+    <t>解説動画→</t>
+    <rPh sb="0" eb="2">
+      <t>カイセツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ドウガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>解説動画（Google Sheetsの場合）→</t>
+    <rPh sb="0" eb="2">
+      <t>カイセツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ドウガ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://youtu.be/uBzq0x8BEm4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://youtu.be/0pP8QdXHjps</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1020,20 +1051,20 @@
         <v>24</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:5">
       <c r="A49" s="1"/>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:5">
       <c r="A50" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:5">
       <c r="A51" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:5">
       <c r="B52" t="s">
         <v>30</v>
       </c>
@@ -1041,7 +1072,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:5">
       <c r="A53" t="s">
         <v>25</v>
       </c>
@@ -1052,7 +1083,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:5">
       <c r="A54" t="s">
         <v>26</v>
       </c>
@@ -1063,7 +1094,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:5">
       <c r="A55" t="s">
         <v>27</v>
       </c>
@@ -1074,7 +1105,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:5">
       <c r="A56" t="s">
         <v>28</v>
       </c>
@@ -1085,7 +1116,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:5">
       <c r="A57" t="s">
         <v>29</v>
       </c>
@@ -1096,22 +1127,38 @@
         <v>72</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:5">
       <c r="A59" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:5">
       <c r="A61" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:5">
       <c r="A62" t="s">
         <v>36</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" t="s">
+        <v>38</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" t="s">
+        <v>39</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="65" spans="1:21">
@@ -1808,6 +1855,8 @@
   <phoneticPr fontId="1"/>
   <hyperlinks>
     <hyperlink ref="D62" r:id="rId1" xr:uid="{F1FA6DE1-A299-4F24-AF2F-A07F22CE43C2}"/>
+    <hyperlink ref="E64" r:id="rId2" xr:uid="{BEC73B74-9F87-47FD-8467-F4E000AF07B1}"/>
+    <hyperlink ref="C63" r:id="rId3" xr:uid="{911C6009-75B4-49C3-9CE8-2CD395B98A0C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
